--- a/biology/Zoologie/Johnrandallia_nigrirostris/Johnrandallia_nigrirostris.xlsx
+++ b/biology/Zoologie/Johnrandallia_nigrirostris/Johnrandallia_nigrirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johnrandallia nigrirostris
 Le poisson-papillon à nez noir (Johnrandallia nigrirostris) est une espèce de poissons de la famille des Chaetodontidae. C'est la seule espèce de son genre Johnrandallia.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille du poisson-papillon à nez noir peut aller jusqu'à 20 cm. Il a la tête blanche avec une bande noire sur le museau, et du noir sur l'œil et sur le front, le corps plus ou moins jaune et une barre noire en haut du corps, allant du milieu du dos vers la queue.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson se nourrit d'algues et d'invertébrés, y compris des parasites d'autres poissons : c'est un poisson nettoyeur.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon à nez noir se rencontre sur les côtes américaines de l'océan Pacifique.
 </t>
